--- a/bts_effort_여기다업데이트해주세요.xlsx
+++ b/bts_effort_여기다업데이트해주세요.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shchin/sdet/CMU/project/presentation/share_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F1CF09BA-1F89-8345-8B08-A8FBACFC10EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30057839-8AAA-B74B-9692-49551BC0D7CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,11 +18,14 @@
     <sheet name="AC" sheetId="9" r:id="rId3"/>
     <sheet name="©" sheetId="11" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="holidays">OFFSET(#REF!,1,0,COUNTA(#REF!),1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">AC!$A$2:$O$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">EV!$A$2:$O$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$M$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$O$47</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2012-2017 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"earned-value-management.xlsx"</definedName>
@@ -69,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>Task Name</t>
   </si>
@@ -262,7 +265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -527,6 +530,13 @@
       <name val="나눔고딕OTF"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="25">
@@ -888,7 +898,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="34" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1028,9 +1038,15 @@
     <xf numFmtId="58" fontId="7" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="43" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="40" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1039,9 +1055,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1261,9 +1274,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Report!$D$21:$W$21</c:f>
+              <c:f>Report!$D$21:$AC$21</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>in Korea</c:v>
                 </c:pt>
@@ -1283,45 +1296,63 @@
                   <c:v>7.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7.16</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>7.17</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>7.18</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>7.19</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>7.20</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>7.23</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>7.24</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>7.25</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>7.26</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>7.27</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.29</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>7.30</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>7.31</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>8.1</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>8.2</c:v>
                 </c:pt>
               </c:strCache>
@@ -1329,10 +1360,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Report!$D$36:$W$36</c:f>
+              <c:f>Report!$D$36:$AC$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -1352,45 +1383,63 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>205</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>230</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>270</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>295</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>320</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>380</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>420</c:v>
                 </c:pt>
               </c:numCache>
@@ -1434,9 +1483,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Report!$D$21:$W$21</c:f>
+              <c:f>Report!$D$21:$AC$21</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>in Korea</c:v>
                 </c:pt>
@@ -1456,45 +1505,63 @@
                   <c:v>7.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7.16</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>7.17</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>7.18</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>7.19</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>7.20</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>7.23</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>7.24</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>7.25</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>7.26</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>7.27</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.29</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>7.30</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>7.31</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>8.1</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>8.2</c:v>
                 </c:pt>
               </c:strCache>
@@ -1502,10 +1569,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Report!$D$40:$W$40</c:f>
+              <c:f>Report!$D$40:$AC$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -1525,46 +1592,64 @@
                   <c:v>69.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>90.6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>115.19999999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>144.19999999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>144.19999999999999</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>163.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>173.7</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>188.7</c:v>
+                  <c:v>166.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>221.7</c:v>
+                  <c:v>166.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>246.7</c:v>
+                  <c:v>181.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>257.7</c:v>
+                  <c:v>191.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>293.7</c:v>
+                  <c:v>206.7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>296.7</c:v>
+                  <c:v>239.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>296.7</c:v>
+                  <c:v>264.7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>296.7</c:v>
+                  <c:v>275.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>285.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>295.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>331.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>350.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>350.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>350.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1607,9 +1692,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Report!$D$21:$W$21</c:f>
+              <c:f>Report!$D$21:$AC$21</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>in Korea</c:v>
                 </c:pt>
@@ -1629,45 +1714,63 @@
                   <c:v>7.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7.16</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>7.17</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>7.18</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>7.19</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>7.20</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>7.23</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>7.24</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>7.25</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>7.26</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>7.27</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.29</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>7.30</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>7.31</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>8.1</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>8.2</c:v>
                 </c:pt>
               </c:strCache>
@@ -1675,10 +1778,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Report!$D$39:$W$39</c:f>
+              <c:f>Report!$D$39:$AC$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>36.5</c:v>
                 </c:pt>
@@ -1698,46 +1801,64 @@
                   <c:v>57.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>80.099999999999994</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>110.69999999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>134.69999999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>134.69999999999999</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>150.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>166.2</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>176.2</c:v>
+                  <c:v>154.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>199.6</c:v>
+                  <c:v>154.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>219.6</c:v>
+                  <c:v>189.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>231.4</c:v>
+                  <c:v>200.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>261.39999999999998</c:v>
+                  <c:v>210.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>265.39999999999998</c:v>
+                  <c:v>233.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>265.39999999999998</c:v>
+                  <c:v>253.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>265.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>280.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>295.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>325.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>341.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>341.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>341.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2032,14 +2153,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>62865</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>137786</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>332731</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>140996</xdr:rowOff>
     </xdr:to>
@@ -2226,6 +2347,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Report"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2494,10 +2628,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -2505,10 +2639,11 @@
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="13" width="8.6640625" customWidth="1"/>
+    <col min="4" max="15" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20">
+    <row r="1" spans="1:17" ht="20">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
@@ -2517,11 +2652,11 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="M1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16">
+    <row r="2" spans="1:17" ht="16">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -2532,7 +2667,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:17">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2540,8 +2675,11 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="2"/>
       <c r="B4" s="9" t="s">
         <v>5</v>
@@ -2553,21 +2691,24 @@
       <c r="E4" s="16"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="Q4" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="2"/>
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="70"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:17">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
@@ -2578,20 +2719,20 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:17">
       <c r="A7" s="2"/>
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="71"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:17">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
@@ -2600,7 +2741,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:17">
       <c r="A9" s="20" t="s">
         <v>26</v>
       </c>
@@ -2611,90 +2752,90 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:17">
       <c r="A10" s="2"/>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:17">
       <c r="A11" s="2"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:17">
       <c r="A12" s="2"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:17">
       <c r="A13" s="2"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:17">
       <c r="A14" s="2"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:17">
       <c r="A15" s="2"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:17">
       <c r="A16" s="2"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:29">
       <c r="A17" s="2"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:29">
       <c r="A18" s="2"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:29">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="5"/>
@@ -2703,7 +2844,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:23" ht="16">
+    <row r="20" spans="1:29" ht="16">
       <c r="A20" s="11" t="s">
         <v>31</v>
       </c>
@@ -2713,7 +2854,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:29">
       <c r="A21" s="58" t="s">
         <v>2</v>
       </c>
@@ -2741,50 +2882,68 @@
       <c r="I21" s="66">
         <v>43294</v>
       </c>
-      <c r="J21" s="66">
+      <c r="J21" s="67">
+        <v>43295</v>
+      </c>
+      <c r="K21" s="67">
+        <v>43296</v>
+      </c>
+      <c r="L21" s="66">
         <v>43297</v>
       </c>
-      <c r="K21" s="66">
+      <c r="M21" s="66">
         <v>43298</v>
       </c>
-      <c r="L21" s="66">
+      <c r="N21" s="66">
         <v>43299</v>
       </c>
-      <c r="M21" s="66">
+      <c r="O21" s="66">
         <v>43300</v>
       </c>
-      <c r="N21" s="66">
+      <c r="P21" s="66">
         <v>43301</v>
       </c>
-      <c r="O21" s="66">
+      <c r="Q21" s="67">
+        <v>43302</v>
+      </c>
+      <c r="R21" s="67">
+        <v>43303</v>
+      </c>
+      <c r="S21" s="66">
         <v>43304</v>
       </c>
-      <c r="P21" s="66">
+      <c r="T21" s="66">
         <v>43305</v>
       </c>
-      <c r="Q21" s="66">
+      <c r="U21" s="66">
         <v>43306</v>
       </c>
-      <c r="R21" s="66">
+      <c r="V21" s="66">
         <v>43307</v>
       </c>
-      <c r="S21" s="66">
+      <c r="W21" s="66">
         <v>43308</v>
       </c>
-      <c r="T21" s="66">
+      <c r="X21" s="67">
+        <v>43309</v>
+      </c>
+      <c r="Y21" s="67">
+        <v>43310</v>
+      </c>
+      <c r="Z21" s="66">
         <v>43311</v>
       </c>
-      <c r="U21" s="66">
+      <c r="AA21" s="66">
         <v>43312</v>
       </c>
-      <c r="V21" s="66">
+      <c r="AB21" s="66">
         <v>43313</v>
       </c>
-      <c r="W21" s="66">
+      <c r="AC21" s="66">
         <v>43314</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:29">
       <c r="A22" s="32">
         <v>1</v>
       </c>
@@ -2792,7 +2951,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="23">
-        <f>SUM(D22:W22)</f>
+        <f>SUM(D22:AC22)</f>
         <v>50</v>
       </c>
       <c r="D22" s="33">
@@ -2817,8 +2976,14 @@
       <c r="U22" s="33"/>
       <c r="V22" s="33"/>
       <c r="W22" s="33"/>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="31">
         <v>2</v>
       </c>
@@ -2826,7 +2991,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="23">
-        <f>SUM(D23:W23)</f>
+        <f t="shared" ref="C23:C33" si="0">SUM(D23:AC23)</f>
         <v>50</v>
       </c>
       <c r="D23" s="30"/>
@@ -2859,8 +3024,14 @@
       <c r="U23" s="30"/>
       <c r="V23" s="30"/>
       <c r="W23" s="30"/>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" s="31">
         <v>4</v>
       </c>
@@ -2868,7 +3039,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="23">
-        <f>SUM(D24:W24)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="D24" s="30"/>
@@ -2877,12 +3048,8 @@
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
-      <c r="J24" s="30">
-        <v>10</v>
-      </c>
-      <c r="K24" s="30">
-        <v>10</v>
-      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
       <c r="L24" s="30">
         <v>10</v>
       </c>
@@ -2890,23 +3057,33 @@
         <v>10</v>
       </c>
       <c r="N24" s="30">
+        <v>10</v>
+      </c>
+      <c r="O24" s="30">
+        <v>10</v>
+      </c>
+      <c r="P24" s="30">
         <v>5</v>
       </c>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
-      <c r="R24" s="30">
-        <v>5</v>
-      </c>
-      <c r="S24" s="30">
-        <v>5</v>
-      </c>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
       <c r="T24" s="30"/>
       <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="V24" s="30">
+        <v>5</v>
+      </c>
+      <c r="W24" s="30">
+        <v>5</v>
+      </c>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" s="31">
         <v>5</v>
       </c>
@@ -2914,7 +3091,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="23">
-        <f>SUM(D25:W25)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D25" s="30"/>
@@ -2925,32 +3102,38 @@
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
-      <c r="L25" s="30">
-        <v>10</v>
-      </c>
-      <c r="M25" s="30">
-        <v>10</v>
-      </c>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
       <c r="N25" s="30">
         <v>10</v>
       </c>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
+      <c r="O25" s="30">
+        <v>10</v>
+      </c>
+      <c r="P25" s="30">
+        <v>10</v>
+      </c>
       <c r="Q25" s="30"/>
-      <c r="R25" s="30">
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30">
         <v>10</v>
       </c>
-      <c r="S25" s="30">
+      <c r="W25" s="30">
         <v>10</v>
       </c>
-      <c r="T25" s="30">
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30">
         <v>10</v>
       </c>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" s="31">
         <v>6</v>
       </c>
@@ -2958,7 +3141,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="23">
-        <f>SUM(D26:W26)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D26" s="30"/>
@@ -2972,19 +3155,25 @@
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
       <c r="N26" s="30"/>
-      <c r="O26" s="30">
-        <v>5</v>
-      </c>
+      <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
+      <c r="S26" s="30">
+        <v>5</v>
+      </c>
       <c r="T26" s="30"/>
       <c r="U26" s="30"/>
       <c r="V26" s="30"/>
       <c r="W26" s="30"/>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" s="31">
         <v>7</v>
       </c>
@@ -2992,7 +3181,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="23">
-        <f>SUM(D27:W27)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="D27" s="30"/>
@@ -3001,30 +3190,26 @@
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
-      <c r="J27" s="30">
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30">
         <v>5</v>
       </c>
-      <c r="K27" s="30">
+      <c r="M27" s="30">
         <v>5</v>
       </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30">
-        <v>10</v>
-      </c>
-      <c r="N27" s="30">
-        <v>10</v>
-      </c>
+      <c r="N27" s="30"/>
       <c r="O27" s="30">
         <v>10</v>
       </c>
       <c r="P27" s="30">
         <v>10</v>
       </c>
-      <c r="Q27" s="30">
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30">
         <v>10</v>
       </c>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
       <c r="T27" s="30">
         <v>10</v>
       </c>
@@ -3033,8 +3218,18 @@
       </c>
       <c r="V27" s="30"/>
       <c r="W27" s="30"/>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="30">
+        <v>10</v>
+      </c>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" s="31">
         <v>8</v>
       </c>
@@ -3042,7 +3237,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="23">
-        <f>SUM(D28:W28)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D28" s="30"/>
@@ -3056,29 +3251,35 @@
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
       <c r="N28" s="30"/>
-      <c r="O28" s="30">
-        <v>10</v>
-      </c>
-      <c r="P28" s="30">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="30">
-        <v>10</v>
-      </c>
-      <c r="R28" s="30">
-        <v>10</v>
-      </c>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
       <c r="S28" s="30">
         <v>10</v>
       </c>
       <c r="T28" s="30">
         <v>10</v>
       </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="U28" s="30">
+        <v>10</v>
+      </c>
+      <c r="V28" s="30">
+        <v>10</v>
+      </c>
+      <c r="W28" s="30">
+        <v>10</v>
+      </c>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30">
+        <v>10</v>
+      </c>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" s="31">
         <v>9</v>
       </c>
@@ -3086,7 +3287,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="23">
-        <f>SUM(D29:W29)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D29" s="30"/>
@@ -3106,21 +3307,27 @@
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
       <c r="T29" s="30"/>
-      <c r="U29" s="30">
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30">
         <v>20</v>
       </c>
-      <c r="V29" s="30">
+      <c r="AB29" s="30">
         <v>20</v>
       </c>
-      <c r="W29" s="30">
+      <c r="AC29" s="30">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:29">
       <c r="A30" s="31"/>
       <c r="B30" s="30"/>
       <c r="C30" s="23">
-        <f>SUM(D30:W30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D30" s="30"/>
@@ -3143,12 +3350,18 @@
       <c r="U30" s="30"/>
       <c r="V30" s="30"/>
       <c r="W30" s="30"/>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" s="31"/>
       <c r="B31" s="30"/>
       <c r="C31" s="23">
-        <f>SUM(D31:W31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D31" s="30"/>
@@ -3171,12 +3384,18 @@
       <c r="U31" s="30"/>
       <c r="V31" s="30"/>
       <c r="W31" s="30"/>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" s="31"/>
       <c r="B32" s="30"/>
       <c r="C32" s="23">
-        <f>SUM(D32:W32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D32" s="30"/>
@@ -3199,12 +3418,18 @@
       <c r="U32" s="30"/>
       <c r="V32" s="30"/>
       <c r="W32" s="30"/>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" s="31"/>
       <c r="B33" s="30"/>
       <c r="C33" s="23">
-        <f>SUM(D33:W33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D33" s="30"/>
@@ -3227,8 +3452,14 @@
       <c r="U33" s="30"/>
       <c r="V33" s="30"/>
       <c r="W33" s="30"/>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" s="14" t="s">
         <v>18</v>
       </c>
@@ -3254,8 +3485,14 @@
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" s="24"/>
       <c r="B35" s="26" t="s">
         <v>32</v>
@@ -3269,83 +3506,107 @@
         <v>50</v>
       </c>
       <c r="E35" s="27">
-        <f t="shared" ref="E35:M35" si="0">SUM(E22:E34)</f>
+        <f t="shared" ref="E35:O35" si="1">SUM(E22:E34)</f>
         <v>10</v>
       </c>
       <c r="F35" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G35" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H35" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I35" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J35" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="27">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K35" s="27">
-        <f t="shared" si="0"/>
+      <c r="M35" s="27">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L35" s="27">
-        <f t="shared" si="0"/>
+      <c r="N35" s="27">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="M35" s="27">
-        <f t="shared" si="0"/>
+      <c r="O35" s="27">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="N35" s="27">
-        <f t="shared" ref="N35" si="1">SUM(N22:N34)</f>
+      <c r="P35" s="27">
+        <f t="shared" ref="P35:Q35" si="2">SUM(P22:P34)</f>
         <v>25</v>
-      </c>
-      <c r="O35" s="27">
-        <f t="shared" ref="O35:W35" si="2">SUM(O22:O34)</f>
-        <v>25</v>
-      </c>
-      <c r="P35" s="27">
-        <f t="shared" si="2"/>
-        <v>20</v>
       </c>
       <c r="Q35" s="27">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="27">
+        <f t="shared" ref="R35:AC35" si="3">SUM(R22:R34)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="27">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="T35" s="27">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="R35" s="27">
-        <f t="shared" si="2"/>
+      <c r="U35" s="27">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="V35" s="27">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="S35" s="27">
-        <f t="shared" si="2"/>
+      <c r="W35" s="27">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="T35" s="27">
-        <f t="shared" si="2"/>
+      <c r="X35" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="27">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="U35" s="27">
-        <f t="shared" si="2"/>
+      <c r="AA35" s="27">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="V35" s="27">
-        <f t="shared" si="2"/>
+      <c r="AB35" s="27">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="W35" s="27">
-        <f t="shared" si="2"/>
+      <c r="AC35" s="27">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:29">
       <c r="A36" s="24"/>
       <c r="B36" s="26"/>
       <c r="C36" s="28" t="s">
@@ -3377,62 +3638,86 @@
       </c>
       <c r="J36" s="29">
         <f>IF(ISBLANK(J21),NA(),SUM($D35:J35))</f>
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K36" s="29">
         <f>IF(ISBLANK(K21),NA(),SUM($D35:K35))</f>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="L36" s="29">
         <f>IF(ISBLANK(L21),NA(),SUM($D35:L35))</f>
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="M36" s="29">
         <f>IF(ISBLANK(M21),NA(),SUM($D35:M35))</f>
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="N36" s="29">
         <f>IF(ISBLANK(N21),NA(),SUM($D35:N35))</f>
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="O36" s="29">
         <f>IF(ISBLANK(O21),NA(),SUM($D35:O35))</f>
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="P36" s="29">
         <f>IF(ISBLANK(P21),NA(),SUM($D35:P35))</f>
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="Q36" s="29">
         <f>IF(ISBLANK(Q21),NA(),SUM($D35:Q35))</f>
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="R36" s="29">
         <f>IF(ISBLANK(R21),NA(),SUM($D35:R35))</f>
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="S36" s="29">
         <f>IF(ISBLANK(S21),NA(),SUM($D35:S35))</f>
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="T36" s="29">
         <f>IF(ISBLANK(T21),NA(),SUM($D35:T35))</f>
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="U36" s="29">
         <f>IF(ISBLANK(U21),NA(),SUM($D35:U35))</f>
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="V36" s="29">
         <f>IF(ISBLANK(V21),NA(),SUM($D35:V35))</f>
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="W36" s="29">
         <f>IF(ISBLANK(W21),NA(),SUM($D35:W35))</f>
+        <v>320</v>
+      </c>
+      <c r="X36" s="29">
+        <f>IF(ISBLANK(X21),NA(),SUM($D35:X35))</f>
+        <v>320</v>
+      </c>
+      <c r="Y36" s="29">
+        <f>IF(ISBLANK(Y21),NA(),SUM($D35:Y35))</f>
+        <v>320</v>
+      </c>
+      <c r="Z36" s="29">
+        <f>IF(ISBLANK(Z21),NA(),SUM($D35:Z35))</f>
+        <v>350</v>
+      </c>
+      <c r="AA36" s="29">
+        <f>IF(ISBLANK(AA21),NA(),SUM($D35:AA35))</f>
+        <v>380</v>
+      </c>
+      <c r="AB36" s="29">
+        <f>IF(ISBLANK(AB21),NA(),SUM($D35:AB35))</f>
+        <v>400</v>
+      </c>
+      <c r="AC36" s="29">
+        <f>IF(ISBLANK(AC21),NA(),SUM($D35:AC35))</f>
         <v>420</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:29">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -3456,13 +3741,19 @@
       <c r="U37" s="24"/>
       <c r="V37" s="24"/>
       <c r="W37" s="24"/>
-    </row>
-    <row r="38" spans="1:23" ht="16">
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+    </row>
+    <row r="38" spans="1:29" ht="16">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:29">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="28" t="s">
@@ -3493,66 +3784,90 @@
         <v>57.8</v>
       </c>
       <c r="J39" s="30">
+        <f>AC!J24</f>
+        <v>57.8</v>
+      </c>
+      <c r="K39" s="30">
+        <f>AC!K24</f>
+        <v>58.4</v>
+      </c>
+      <c r="L39" s="30">
         <f>AC!L24</f>
         <v>80.099999999999994</v>
       </c>
-      <c r="K39" s="30">
+      <c r="M39" s="30">
         <f>AC!M24</f>
         <v>110.69999999999999</v>
       </c>
-      <c r="L39" s="30">
+      <c r="N39" s="30">
         <f>AC!N24</f>
         <v>134.69999999999999</v>
       </c>
-      <c r="M39" s="30">
+      <c r="O39" s="30">
         <f>AC!O24</f>
         <v>134.69999999999999</v>
       </c>
-      <c r="N39" s="30">
+      <c r="P39" s="30">
         <f>AC!P24</f>
-        <v>150.19999999999999</v>
-      </c>
-      <c r="O39" s="30">
+        <v>154.19999999999999</v>
+      </c>
+      <c r="Q39" s="30">
+        <f>AC!Q24</f>
+        <v>154.19999999999999</v>
+      </c>
+      <c r="R39" s="30">
+        <f>AC!R24</f>
+        <v>189.2</v>
+      </c>
+      <c r="S39" s="30">
         <f>AC!S24</f>
-        <v>166.2</v>
-      </c>
-      <c r="P39" s="30">
+        <v>200.2</v>
+      </c>
+      <c r="T39" s="30">
         <f>AC!T24</f>
-        <v>176.2</v>
-      </c>
-      <c r="Q39" s="30">
+        <v>210.2</v>
+      </c>
+      <c r="U39" s="30">
         <f>AC!U24</f>
-        <v>199.6</v>
-      </c>
-      <c r="R39" s="30">
+        <v>233.6</v>
+      </c>
+      <c r="V39" s="30">
         <f>AC!V24</f>
-        <v>219.6</v>
-      </c>
-      <c r="S39" s="30">
+        <v>253.6</v>
+      </c>
+      <c r="W39" s="30">
         <f>AC!W24</f>
-        <v>231.4</v>
-      </c>
-      <c r="T39" s="30">
+        <v>265.39999999999998</v>
+      </c>
+      <c r="X39" s="30">
+        <f>AC!X24</f>
+        <v>280.39999999999998</v>
+      </c>
+      <c r="Y39" s="30">
+        <f>AC!Y24</f>
+        <v>295.39999999999998</v>
+      </c>
+      <c r="Z39" s="30">
         <f>AC!Z24</f>
-        <v>261.39999999999998</v>
-      </c>
-      <c r="U39" s="30">
+        <v>325.39999999999998</v>
+      </c>
+      <c r="AA39" s="30">
         <f>AC!AA24</f>
-        <v>265.39999999999998</v>
-      </c>
-      <c r="V39" s="30">
+        <v>341.4</v>
+      </c>
+      <c r="AB39" s="30">
         <f>AC!AB24</f>
-        <v>265.39999999999998</v>
-      </c>
-      <c r="W39" s="30">
+        <v>341.4</v>
+      </c>
+      <c r="AC39" s="30">
         <f>AC!AC24</f>
-        <v>265.39999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+        <v>341.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="71" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="30">
@@ -3580,63 +3895,87 @@
         <v>69.3</v>
       </c>
       <c r="J40" s="30">
+        <f>EV!J23</f>
+        <v>69.3</v>
+      </c>
+      <c r="K40" s="30">
+        <f>EV!K23</f>
+        <v>69.899999999999991</v>
+      </c>
+      <c r="L40" s="30">
         <f>EV!L23</f>
         <v>90.6</v>
       </c>
-      <c r="K40" s="30">
+      <c r="M40" s="30">
         <f>EV!M23</f>
         <v>115.19999999999999</v>
       </c>
-      <c r="L40" s="30">
+      <c r="N40" s="30">
         <f>EV!N23</f>
         <v>144.19999999999999</v>
       </c>
-      <c r="M40" s="30">
+      <c r="O40" s="30">
         <f>EV!O23</f>
         <v>144.19999999999999</v>
       </c>
-      <c r="N40" s="30">
+      <c r="P40" s="30">
         <f>EV!P23</f>
-        <v>163.69999999999999</v>
-      </c>
-      <c r="O40" s="30">
+        <v>166.7</v>
+      </c>
+      <c r="Q40" s="30">
+        <f>EV!Q23</f>
+        <v>166.7</v>
+      </c>
+      <c r="R40" s="30">
+        <f>EV!R23</f>
+        <v>181.7</v>
+      </c>
+      <c r="S40" s="30">
         <f>EV!S23</f>
-        <v>173.7</v>
-      </c>
-      <c r="P40" s="30">
+        <v>191.7</v>
+      </c>
+      <c r="T40" s="30">
         <f>EV!T23</f>
-        <v>188.7</v>
-      </c>
-      <c r="Q40" s="30">
+        <v>206.7</v>
+      </c>
+      <c r="U40" s="30">
         <f>EV!U23</f>
-        <v>221.7</v>
-      </c>
-      <c r="R40" s="30">
+        <v>239.7</v>
+      </c>
+      <c r="V40" s="30">
         <f>EV!V23</f>
-        <v>246.7</v>
-      </c>
-      <c r="S40" s="30">
+        <v>264.7</v>
+      </c>
+      <c r="W40" s="30">
         <f>EV!W23</f>
-        <v>257.7</v>
-      </c>
-      <c r="T40" s="30">
+        <v>275.7</v>
+      </c>
+      <c r="X40" s="30">
+        <f>EV!X23</f>
+        <v>285.7</v>
+      </c>
+      <c r="Y40" s="30">
+        <f>EV!Y23</f>
+        <v>295.7</v>
+      </c>
+      <c r="Z40" s="30">
         <f>EV!Z23</f>
-        <v>293.7</v>
-      </c>
-      <c r="U40" s="30">
+        <v>331.7</v>
+      </c>
+      <c r="AA40" s="30">
         <f>EV!AA23</f>
-        <v>296.7</v>
-      </c>
-      <c r="V40" s="30">
+        <v>350.2</v>
+      </c>
+      <c r="AB40" s="30">
         <f>EV!AB23</f>
-        <v>296.7</v>
-      </c>
-      <c r="W40" s="30">
+        <v>350.2</v>
+      </c>
+      <c r="AC40" s="30">
         <f>EV!AC23</f>
-        <v>296.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+        <v>350.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -3660,13 +3999,19 @@
       <c r="U41" s="24"/>
       <c r="V41" s="24"/>
       <c r="W41" s="24"/>
-    </row>
-    <row r="42" spans="1:23" ht="16">
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="24"/>
+    </row>
+    <row r="42" spans="1:29" ht="16">
       <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:29">
       <c r="C43" s="13" t="s">
         <v>13</v>
       </c>
@@ -3675,83 +4020,107 @@
         <v>13.5</v>
       </c>
       <c r="E43" s="10">
-        <f t="shared" ref="E43:M43" si="3">IF(AND(ISBLANK(E39),ISBLANK(E40))," - ",E40-E39)</f>
+        <f t="shared" ref="E43:O43" si="4">IF(AND(ISBLANK(E39),ISBLANK(E40))," - ",E40-E39)</f>
         <v>12.5</v>
       </c>
       <c r="F43" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.5</v>
       </c>
       <c r="J43" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>11.5</v>
+      </c>
+      <c r="K43" s="10">
+        <f t="shared" si="4"/>
+        <v>11.499999999999993</v>
+      </c>
+      <c r="L43" s="10">
+        <f t="shared" si="4"/>
         <v>10.5</v>
       </c>
-      <c r="K43" s="10">
-        <f t="shared" si="3"/>
+      <c r="M43" s="10">
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="L43" s="10">
-        <f t="shared" si="3"/>
+      <c r="N43" s="10">
+        <f t="shared" si="4"/>
         <v>9.5</v>
       </c>
-      <c r="M43" s="10">
-        <f t="shared" si="3"/>
+      <c r="O43" s="10">
+        <f t="shared" si="4"/>
         <v>9.5</v>
       </c>
-      <c r="N43" s="10">
-        <f t="shared" ref="N43" si="4">IF(AND(ISBLANK(N39),ISBLANK(N40))," - ",N40-N39)</f>
-        <v>13.5</v>
-      </c>
-      <c r="O43" s="10">
-        <f t="shared" ref="O43:W43" si="5">IF(AND(ISBLANK(O39),ISBLANK(O40))," - ",O40-O39)</f>
-        <v>7.5</v>
-      </c>
       <c r="P43" s="10">
+        <f t="shared" ref="P43:Q43" si="5">IF(AND(ISBLANK(P39),ISBLANK(P40))," - ",P40-P39)</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q43" s="10">
         <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
-      <c r="Q43" s="10">
-        <f t="shared" si="5"/>
-        <v>22.099999999999994</v>
-      </c>
       <c r="R43" s="10">
-        <f t="shared" si="5"/>
-        <v>27.099999999999994</v>
+        <f t="shared" ref="R43:AC43" si="6">IF(AND(ISBLANK(R39),ISBLANK(R40))," - ",R40-R39)</f>
+        <v>-7.5</v>
       </c>
       <c r="S43" s="10">
-        <f t="shared" si="5"/>
-        <v>26.299999999999983</v>
+        <f t="shared" si="6"/>
+        <v>-8.5</v>
       </c>
       <c r="T43" s="10">
-        <f t="shared" si="5"/>
-        <v>32.300000000000011</v>
+        <f t="shared" si="6"/>
+        <v>-3.5</v>
       </c>
       <c r="U43" s="10">
-        <f t="shared" si="5"/>
-        <v>31.300000000000011</v>
+        <f t="shared" si="6"/>
+        <v>6.0999999999999943</v>
       </c>
       <c r="V43" s="10">
-        <f t="shared" si="5"/>
-        <v>31.300000000000011</v>
+        <f t="shared" si="6"/>
+        <v>11.099999999999994</v>
       </c>
       <c r="W43" s="10">
-        <f t="shared" si="5"/>
-        <v>31.300000000000011</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+        <f t="shared" si="6"/>
+        <v>10.300000000000011</v>
+      </c>
+      <c r="X43" s="10">
+        <f t="shared" si="6"/>
+        <v>5.3000000000000114</v>
+      </c>
+      <c r="Y43" s="10">
+        <f t="shared" si="6"/>
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="Z43" s="10">
+        <f t="shared" si="6"/>
+        <v>6.3000000000000114</v>
+      </c>
+      <c r="AA43" s="10">
+        <f t="shared" si="6"/>
+        <v>8.8000000000000114</v>
+      </c>
+      <c r="AB43" s="10">
+        <f t="shared" si="6"/>
+        <v>8.8000000000000114</v>
+      </c>
+      <c r="AC43" s="10">
+        <f t="shared" si="6"/>
+        <v>8.8000000000000114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
       <c r="C44" s="13" t="s">
         <v>12</v>
       </c>
@@ -3760,83 +4129,107 @@
         <v>0</v>
       </c>
       <c r="E44" s="10">
-        <f t="shared" ref="E44:M44" si="6">IF(AND(ISBLANK(E39),ISBLANK(E40))," - ",E40-E36)</f>
+        <f t="shared" ref="E44:O44" si="7">IF(AND(ISBLANK(E39),ISBLANK(E40))," - ",E40-E36)</f>
         <v>-7</v>
       </c>
       <c r="F44" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-13</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-18</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-23</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-30.700000000000003</v>
       </c>
       <c r="J44" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>-30.700000000000003</v>
+      </c>
+      <c r="K44" s="10">
+        <f t="shared" si="7"/>
+        <v>-30.100000000000009</v>
+      </c>
+      <c r="L44" s="10">
+        <f t="shared" si="7"/>
         <v>-24.400000000000006</v>
       </c>
-      <c r="K44" s="10">
-        <f t="shared" si="6"/>
+      <c r="M44" s="10">
+        <f t="shared" si="7"/>
         <v>-14.800000000000011</v>
       </c>
-      <c r="L44" s="10">
-        <f t="shared" si="6"/>
+      <c r="N44" s="10">
+        <f t="shared" si="7"/>
         <v>-5.8000000000000114</v>
       </c>
-      <c r="M44" s="10">
-        <f t="shared" si="6"/>
+      <c r="O44" s="10">
+        <f t="shared" si="7"/>
         <v>-35.800000000000011</v>
       </c>
-      <c r="N44" s="10">
-        <f t="shared" ref="N44" si="7">IF(AND(ISBLANK(N39),ISBLANK(N40))," - ",N40-N36)</f>
-        <v>-41.300000000000011</v>
-      </c>
-      <c r="O44" s="10">
-        <f t="shared" ref="O44:W44" si="8">IF(AND(ISBLANK(O39),ISBLANK(O40))," - ",O40-O36)</f>
-        <v>-56.300000000000011</v>
-      </c>
       <c r="P44" s="10">
-        <f t="shared" si="8"/>
-        <v>-61.300000000000011</v>
+        <f t="shared" ref="P44:Q44" si="8">IF(AND(ISBLANK(P39),ISBLANK(P40))," - ",P40-P36)</f>
+        <v>-38.300000000000011</v>
       </c>
       <c r="Q44" s="10">
         <f t="shared" si="8"/>
-        <v>-48.300000000000011</v>
+        <v>-38.300000000000011</v>
       </c>
       <c r="R44" s="10">
-        <f t="shared" si="8"/>
-        <v>-48.300000000000011</v>
+        <f t="shared" ref="R44:AC44" si="9">IF(AND(ISBLANK(R39),ISBLANK(R40))," - ",R40-R36)</f>
+        <v>-23.300000000000011</v>
       </c>
       <c r="S44" s="10">
-        <f t="shared" si="8"/>
-        <v>-62.300000000000011</v>
+        <f t="shared" si="9"/>
+        <v>-38.300000000000011</v>
       </c>
       <c r="T44" s="10">
-        <f t="shared" si="8"/>
-        <v>-56.300000000000011</v>
+        <f t="shared" si="9"/>
+        <v>-43.300000000000011</v>
       </c>
       <c r="U44" s="10">
-        <f t="shared" si="8"/>
-        <v>-83.300000000000011</v>
+        <f t="shared" si="9"/>
+        <v>-30.300000000000011</v>
       </c>
       <c r="V44" s="10">
-        <f t="shared" si="8"/>
-        <v>-103.30000000000001</v>
+        <f t="shared" si="9"/>
+        <v>-30.300000000000011</v>
       </c>
       <c r="W44" s="10">
-        <f t="shared" si="8"/>
-        <v>-123.30000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+        <f t="shared" si="9"/>
+        <v>-44.300000000000011</v>
+      </c>
+      <c r="X44" s="10">
+        <f t="shared" si="9"/>
+        <v>-34.300000000000011</v>
+      </c>
+      <c r="Y44" s="10">
+        <f t="shared" si="9"/>
+        <v>-24.300000000000011</v>
+      </c>
+      <c r="Z44" s="10">
+        <f t="shared" si="9"/>
+        <v>-18.300000000000011</v>
+      </c>
+      <c r="AA44" s="10">
+        <f t="shared" si="9"/>
+        <v>-29.800000000000011</v>
+      </c>
+      <c r="AB44" s="10">
+        <f t="shared" si="9"/>
+        <v>-49.800000000000011</v>
+      </c>
+      <c r="AC44" s="10">
+        <f t="shared" si="9"/>
+        <v>-69.800000000000011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
       <c r="C45" s="13" t="s">
         <v>14</v>
       </c>
@@ -3845,83 +4238,107 @@
         <v>1.3698630136986301</v>
       </c>
       <c r="E45" s="35">
-        <f t="shared" ref="E45:M45" si="9">IF(AND(ISBLANK(E39),ISBLANK(E40))," - ",E40/E39)</f>
+        <f t="shared" ref="E45:O45" si="10">IF(AND(ISBLANK(E39),ISBLANK(E40))," - ",E40/E39)</f>
         <v>1.308641975308642</v>
       </c>
       <c r="F45" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2808988764044944</v>
       </c>
       <c r="G45" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2525252525252526</v>
       </c>
       <c r="H45" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2293577981651376</v>
       </c>
       <c r="I45" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.198961937716263</v>
       </c>
       <c r="J45" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
+        <v>1.198961937716263</v>
+      </c>
+      <c r="K45" s="35">
+        <f t="shared" si="10"/>
+        <v>1.196917808219178</v>
+      </c>
+      <c r="L45" s="35">
+        <f t="shared" si="10"/>
         <v>1.1310861423220975</v>
       </c>
-      <c r="K45" s="35">
-        <f t="shared" si="9"/>
+      <c r="M45" s="35">
+        <f t="shared" si="10"/>
         <v>1.0406504065040652</v>
       </c>
-      <c r="L45" s="35">
-        <f t="shared" si="9"/>
+      <c r="N45" s="35">
+        <f t="shared" si="10"/>
         <v>1.0705270972531551</v>
       </c>
-      <c r="M45" s="35">
-        <f t="shared" si="9"/>
+      <c r="O45" s="35">
+        <f t="shared" si="10"/>
         <v>1.0705270972531551</v>
       </c>
-      <c r="N45" s="35">
-        <f t="shared" ref="N45" si="10">IF(AND(ISBLANK(N39),ISBLANK(N40))," - ",N40/N39)</f>
-        <v>1.0898801597869507</v>
-      </c>
-      <c r="O45" s="35">
-        <f t="shared" ref="O45:W45" si="11">IF(AND(ISBLANK(O39),ISBLANK(O40))," - ",O40/O39)</f>
-        <v>1.0451263537906137</v>
-      </c>
       <c r="P45" s="35">
-        <f t="shared" si="11"/>
-        <v>1.0709421112372304</v>
+        <f t="shared" ref="P45:Q45" si="11">IF(AND(ISBLANK(P39),ISBLANK(P40))," - ",P40/P39)</f>
+        <v>1.0810635538261997</v>
       </c>
       <c r="Q45" s="35">
         <f t="shared" si="11"/>
-        <v>1.1107214428857715</v>
+        <v>1.0810635538261997</v>
       </c>
       <c r="R45" s="35">
-        <f t="shared" si="11"/>
-        <v>1.1234061930783241</v>
+        <f t="shared" ref="R45:AC45" si="12">IF(AND(ISBLANK(R39),ISBLANK(R40))," - ",R40/R39)</f>
+        <v>0.96035940803382669</v>
       </c>
       <c r="S45" s="35">
-        <f t="shared" si="11"/>
-        <v>1.1136560069144339</v>
+        <f t="shared" si="12"/>
+        <v>0.95754245754245759</v>
       </c>
       <c r="T45" s="35">
-        <f t="shared" si="11"/>
-        <v>1.123565416985463</v>
+        <f t="shared" si="12"/>
+        <v>0.98334919124643194</v>
       </c>
       <c r="U45" s="35">
-        <f t="shared" si="11"/>
-        <v>1.1179351921627732</v>
+        <f t="shared" si="12"/>
+        <v>1.0261130136986301</v>
       </c>
       <c r="V45" s="35">
-        <f t="shared" si="11"/>
-        <v>1.1179351921627732</v>
+        <f t="shared" si="12"/>
+        <v>1.0437697160883281</v>
       </c>
       <c r="W45" s="35">
-        <f t="shared" si="11"/>
-        <v>1.1179351921627732</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+        <f t="shared" si="12"/>
+        <v>1.0388093443858328</v>
+      </c>
+      <c r="X45" s="35">
+        <f t="shared" si="12"/>
+        <v>1.0189015691868759</v>
+      </c>
+      <c r="Y45" s="35">
+        <f t="shared" si="12"/>
+        <v>1.0010155721056195</v>
+      </c>
+      <c r="Z45" s="35">
+        <f t="shared" si="12"/>
+        <v>1.019360786724032</v>
+      </c>
+      <c r="AA45" s="35">
+        <f t="shared" si="12"/>
+        <v>1.025776215582894</v>
+      </c>
+      <c r="AB45" s="35">
+        <f t="shared" si="12"/>
+        <v>1.025776215582894</v>
+      </c>
+      <c r="AC45" s="35">
+        <f t="shared" si="12"/>
+        <v>1.025776215582894</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
       <c r="C46" s="13" t="s">
         <v>15</v>
       </c>
@@ -3930,83 +4347,107 @@
         <v>1</v>
       </c>
       <c r="E46" s="35">
-        <f t="shared" ref="E46:M46" si="12">IF(AND(ISBLANK(E39),ISBLANK(E40))," - ",E40/E36)</f>
+        <f t="shared" ref="E46:O46" si="13">IF(AND(ISBLANK(E39),ISBLANK(E40))," - ",E40/E36)</f>
         <v>0.8833333333333333</v>
       </c>
       <c r="F46" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.81428571428571428</v>
       </c>
       <c r="G46" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.77500000000000002</v>
       </c>
       <c r="H46" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.74444444444444446</v>
       </c>
       <c r="I46" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.69299999999999995</v>
       </c>
       <c r="J46" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="K46" s="35">
+        <f t="shared" si="13"/>
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="L46" s="35">
+        <f t="shared" si="13"/>
         <v>0.78782608695652168</v>
       </c>
-      <c r="K46" s="35">
-        <f t="shared" si="12"/>
+      <c r="M46" s="35">
+        <f t="shared" si="13"/>
         <v>0.88615384615384607</v>
       </c>
-      <c r="L46" s="35">
-        <f t="shared" si="12"/>
+      <c r="N46" s="35">
+        <f t="shared" si="13"/>
         <v>0.96133333333333326</v>
       </c>
-      <c r="M46" s="35">
-        <f t="shared" si="12"/>
+      <c r="O46" s="35">
+        <f t="shared" si="13"/>
         <v>0.801111111111111</v>
       </c>
-      <c r="N46" s="35">
-        <f t="shared" ref="N46" si="13">IF(AND(ISBLANK(N39),ISBLANK(N40))," - ",N40/N36)</f>
-        <v>0.79853658536585359</v>
-      </c>
-      <c r="O46" s="35">
-        <f t="shared" ref="O46:W46" si="14">IF(AND(ISBLANK(O39),ISBLANK(O40))," - ",O40/O36)</f>
-        <v>0.75521739130434773</v>
-      </c>
       <c r="P46" s="35">
-        <f t="shared" si="14"/>
-        <v>0.75479999999999992</v>
+        <f t="shared" ref="P46:Q46" si="14">IF(AND(ISBLANK(P39),ISBLANK(P40))," - ",P40/P36)</f>
+        <v>0.81317073170731702</v>
       </c>
       <c r="Q46" s="35">
         <f t="shared" si="14"/>
-        <v>0.82111111111111101</v>
+        <v>0.81317073170731702</v>
       </c>
       <c r="R46" s="35">
-        <f t="shared" si="14"/>
-        <v>0.83627118644067788</v>
+        <f t="shared" ref="R46:AC46" si="15">IF(AND(ISBLANK(R39),ISBLANK(R40))," - ",R40/R36)</f>
+        <v>0.88634146341463405</v>
       </c>
       <c r="S46" s="35">
-        <f t="shared" si="14"/>
-        <v>0.80531249999999999</v>
+        <f t="shared" si="15"/>
+        <v>0.83347826086956511</v>
       </c>
       <c r="T46" s="35">
-        <f t="shared" si="14"/>
-        <v>0.83914285714285708</v>
+        <f t="shared" si="15"/>
+        <v>0.82679999999999998</v>
       </c>
       <c r="U46" s="35">
-        <f t="shared" si="14"/>
-        <v>0.78078947368421048</v>
+        <f t="shared" si="15"/>
+        <v>0.88777777777777778</v>
       </c>
       <c r="V46" s="35">
-        <f t="shared" si="14"/>
-        <v>0.74175000000000002</v>
+        <f t="shared" si="15"/>
+        <v>0.89728813559322029</v>
       </c>
       <c r="W46" s="35">
-        <f t="shared" si="14"/>
-        <v>0.70642857142857141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+        <f t="shared" si="15"/>
+        <v>0.86156250000000001</v>
+      </c>
+      <c r="X46" s="35">
+        <f t="shared" si="15"/>
+        <v>0.89281250000000001</v>
+      </c>
+      <c r="Y46" s="35">
+        <f t="shared" si="15"/>
+        <v>0.92406250000000001</v>
+      </c>
+      <c r="Z46" s="35">
+        <f t="shared" si="15"/>
+        <v>0.94771428571428573</v>
+      </c>
+      <c r="AA46" s="35">
+        <f t="shared" si="15"/>
+        <v>0.92157894736842105</v>
+      </c>
+      <c r="AB46" s="35">
+        <f t="shared" si="15"/>
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="AC46" s="35">
+        <f t="shared" si="15"/>
+        <v>0.83380952380952378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
       <c r="C47" s="13" t="s">
         <v>17</v>
       </c>
@@ -4015,80 +4456,104 @@
         <v>306.60000000000002</v>
       </c>
       <c r="E47" s="36">
-        <f t="shared" ref="E47:M47" si="15">IF(AND(ISBLANK(E39),ISBLANK(E40))," - ",$C$35/E45)</f>
+        <f t="shared" ref="E47:O47" si="16">IF(AND(ISBLANK(E39),ISBLANK(E40))," - ",$C$35/E45)</f>
         <v>320.94339622641508</v>
       </c>
       <c r="F47" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>327.89473684210526</v>
       </c>
       <c r="G47" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>335.32258064516128</v>
       </c>
       <c r="H47" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>341.64179104477614</v>
       </c>
       <c r="I47" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>350.30303030303031</v>
       </c>
       <c r="J47" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
+        <v>350.30303030303031</v>
+      </c>
+      <c r="K47" s="36">
+        <f t="shared" si="16"/>
+        <v>350.9012875536481</v>
+      </c>
+      <c r="L47" s="36">
+        <f t="shared" si="16"/>
         <v>371.32450331125824</v>
       </c>
-      <c r="K47" s="36">
-        <f t="shared" si="15"/>
+      <c r="M47" s="36">
+        <f t="shared" si="16"/>
         <v>403.59374999999994</v>
       </c>
-      <c r="L47" s="36">
-        <f t="shared" si="15"/>
+      <c r="N47" s="36">
+        <f t="shared" si="16"/>
         <v>392.33009708737865</v>
       </c>
-      <c r="M47" s="36">
-        <f t="shared" si="15"/>
+      <c r="O47" s="36">
+        <f t="shared" si="16"/>
         <v>392.33009708737865</v>
       </c>
-      <c r="N47" s="36">
-        <f t="shared" ref="N47" si="16">IF(AND(ISBLANK(N39),ISBLANK(N40))," - ",$C$35/N45)</f>
-        <v>385.36346976175929</v>
-      </c>
-      <c r="O47" s="36">
-        <f t="shared" ref="O47:W47" si="17">IF(AND(ISBLANK(O39),ISBLANK(O40))," - ",$C$35/O45)</f>
-        <v>401.8652849740933</v>
-      </c>
       <c r="P47" s="36">
-        <f t="shared" si="17"/>
-        <v>392.17806041335456</v>
+        <f t="shared" ref="P47:Q47" si="17">IF(AND(ISBLANK(P39),ISBLANK(P40))," - ",$C$35/P45)</f>
+        <v>388.50629874025196</v>
       </c>
       <c r="Q47" s="36">
         <f t="shared" si="17"/>
-        <v>378.13261163734779</v>
+        <v>388.50629874025196</v>
       </c>
       <c r="R47" s="36">
-        <f t="shared" si="17"/>
-        <v>373.86299148763686</v>
+        <f t="shared" ref="R47:AC47" si="18">IF(AND(ISBLANK(R39),ISBLANK(R40))," - ",$C$35/R45)</f>
+        <v>437.33626857457347</v>
       </c>
       <c r="S47" s="36">
-        <f t="shared" si="17"/>
-        <v>377.13620488940626</v>
+        <f t="shared" si="18"/>
+        <v>438.62284820031294</v>
       </c>
       <c r="T47" s="36">
-        <f t="shared" si="17"/>
-        <v>373.81001021450459</v>
+        <f t="shared" si="18"/>
+        <v>427.11175616835993</v>
       </c>
       <c r="U47" s="36">
-        <f t="shared" si="17"/>
-        <v>375.69261880687566</v>
+        <f t="shared" si="18"/>
+        <v>409.31163954943685</v>
       </c>
       <c r="V47" s="36">
-        <f t="shared" si="17"/>
-        <v>375.69261880687566</v>
+        <f t="shared" si="18"/>
+        <v>402.38760861352472</v>
       </c>
       <c r="W47" s="36">
-        <f t="shared" si="17"/>
-        <v>375.69261880687566</v>
+        <f t="shared" si="18"/>
+        <v>404.30903155603914</v>
+      </c>
+      <c r="X47" s="36">
+        <f t="shared" si="18"/>
+        <v>412.2086104305215</v>
+      </c>
+      <c r="Y47" s="36">
+        <f t="shared" si="18"/>
+        <v>419.57389245857286</v>
+      </c>
+      <c r="Z47" s="36">
+        <f t="shared" si="18"/>
+        <v>412.02291227012358</v>
+      </c>
+      <c r="AA47" s="36">
+        <f t="shared" si="18"/>
+        <v>409.44603083952023</v>
+      </c>
+      <c r="AB47" s="36">
+        <f t="shared" si="18"/>
+        <v>409.44603083952023</v>
+      </c>
+      <c r="AC47" s="36">
+        <f t="shared" si="18"/>
+        <v>409.44603083952023</v>
       </c>
     </row>
   </sheetData>
@@ -4098,7 +4563,7 @@
     <mergeCell ref="B10:E18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="D45:W46">
+  <conditionalFormatting sqref="D45:AC46">
     <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -4106,7 +4571,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:W44">
+  <conditionalFormatting sqref="D43:AC44">
     <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -4114,13 +4579,16 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="Q3" r:id="rId1" display="https://www.vertex42.com/ExcelTemplates/earned-value-management.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.5" header="0.5" footer="0.25"/>
-  <pageSetup scale="91" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="91" orientation="landscape" r:id="rId2"/>
   <headerFooter scaleWithDoc="0">
     <oddFooter>&amp;L&amp;8&amp;K01+049https://www.vertex42.com/ExcelTemplates/earned-value-management.html&amp;R&amp;8&amp;K01+049EVM Template © 2012 Vertex42 LLC</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4131,8 +4599,8 @@
   </sheetPr>
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" topLeftCell="R1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -4304,34 +4772,34 @@
         <f>Report!C22</f>
         <v>50</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="68">
         <v>50</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="6">
@@ -4346,50 +4814,50 @@
         <f>Report!C23</f>
         <v>50</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67">
+      <c r="D10" s="68"/>
+      <c r="E10" s="68">
         <v>3</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="68">
         <v>4</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="68">
         <v>5</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="68">
         <v>5</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="68">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67">
+      <c r="J10" s="68"/>
+      <c r="K10" s="68">
         <v>0.6</v>
       </c>
-      <c r="L10" s="67">
+      <c r="L10" s="68">
         <v>3.7</v>
       </c>
-      <c r="M10" s="67">
+      <c r="M10" s="68">
         <v>7.6</v>
       </c>
-      <c r="N10" s="67">
+      <c r="N10" s="68">
         <v>2</v>
       </c>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="6">
@@ -4404,40 +4872,40 @@
         <f>Report!C24</f>
         <v>55</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67">
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68">
         <v>15</v>
       </c>
-      <c r="M11" s="67">
+      <c r="M11" s="68">
         <v>15</v>
       </c>
-      <c r="N11" s="67">
+      <c r="N11" s="68">
         <v>27</v>
       </c>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67">
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68">
         <v>8</v>
       </c>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="6">
@@ -4452,38 +4920,38 @@
         <f>Report!C25</f>
         <v>60</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67">
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68">
         <v>19.5</v>
       </c>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67">
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68">
         <v>15</v>
       </c>
-      <c r="AA12" s="67">
+      <c r="AA12" s="68">
         <v>3</v>
       </c>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="6">
@@ -4498,36 +4966,36 @@
         <f>Report!C26</f>
         <v>5</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67">
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68">
         <v>5</v>
       </c>
-      <c r="T13" s="67">
+      <c r="T13" s="68">
         <v>5</v>
       </c>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="6">
@@ -4542,42 +5010,44 @@
         <f>Report!C27</f>
         <v>80</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67">
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68">
         <v>2</v>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="68">
         <v>2</v>
       </c>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67">
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68">
         <v>13</v>
       </c>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67">
+      <c r="V14" s="68"/>
+      <c r="W14" s="68">
         <v>6.5</v>
       </c>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67">
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68">
         <v>3</v>
       </c>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
+      <c r="AA14" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="6">
@@ -4592,44 +5062,48 @@
         <f>Report!C28</f>
         <v>60</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67">
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68">
         <v>5</v>
       </c>
-      <c r="T15" s="67">
+      <c r="T15" s="68">
         <v>10</v>
       </c>
-      <c r="U15" s="67">
+      <c r="U15" s="68">
         <v>20</v>
       </c>
-      <c r="V15" s="67">
+      <c r="V15" s="68">
         <v>25</v>
       </c>
-      <c r="W15" s="67">
+      <c r="W15" s="68">
         <v>4.5</v>
       </c>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67">
+      <c r="X15" s="68">
         <v>10</v>
       </c>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
+      <c r="Y15" s="68">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="68">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="6">
@@ -4644,32 +5118,38 @@
         <f>Report!C29</f>
         <v>60</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68">
+        <v>15</v>
+      </c>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68">
+        <v>15</v>
+      </c>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="6" t="str">
@@ -4684,32 +5164,32 @@
         <f>Report!C30</f>
         <v>0</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="6" t="str">
@@ -4724,32 +5204,32 @@
         <f>Report!C31</f>
         <v>0</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="6" t="str">
@@ -4764,32 +5244,32 @@
         <f>Report!C32</f>
         <v>0</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="68"/>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="6" t="str">
@@ -4804,32 +5284,32 @@
         <f>Report!C33</f>
         <v>0</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="14" t="s">
@@ -4868,216 +5348,216 @@
       <c r="C22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="68">
+      <c r="D22" s="69">
         <f>SUM(D9:D21)</f>
         <v>50</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="69">
         <f>SUM(E9:E21)</f>
         <v>3</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="69">
         <f t="shared" ref="F22:AC22" si="0">SUM(F9:F21)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="69">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="69">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I22" s="68">
+      <c r="I22" s="69">
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="J22" s="68">
+      <c r="J22" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="68">
+      <c r="K22" s="69">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="L22" s="68">
+      <c r="L22" s="69">
         <f t="shared" si="0"/>
         <v>20.7</v>
       </c>
-      <c r="M22" s="68">
+      <c r="M22" s="69">
         <f t="shared" si="0"/>
         <v>24.6</v>
       </c>
-      <c r="N22" s="68">
+      <c r="N22" s="69">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="O22" s="68">
+      <c r="O22" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="68">
+      <c r="P22" s="69">
         <f t="shared" si="0"/>
-        <v>19.5</v>
-      </c>
-      <c r="Q22" s="68">
+        <v>22.5</v>
+      </c>
+      <c r="Q22" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R22" s="68">
+      <c r="R22" s="69">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S22" s="69">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T22" s="69">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="U22" s="69">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="V22" s="69">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="W22" s="69">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="X22" s="69">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Y22" s="69">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Z22" s="69">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AA22" s="69">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="AB22" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S22" s="68">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T22" s="68">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="U22" s="68">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="V22" s="68">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="W22" s="68">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="X22" s="68">
+      <c r="AC22" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="68">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="AA22" s="68">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AB22" s="68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="1:29">
       <c r="C23" s="7"/>
-      <c r="D23" s="69">
+      <c r="D23" s="70">
         <f>SUM($D22:D22)</f>
         <v>50</v>
       </c>
-      <c r="E23" s="69">
+      <c r="E23" s="70">
         <f>SUM($D22:E22)</f>
         <v>53</v>
       </c>
-      <c r="F23" s="69">
+      <c r="F23" s="70">
         <f>SUM($D22:F22)</f>
         <v>57</v>
       </c>
-      <c r="G23" s="69">
+      <c r="G23" s="70">
         <f>SUM($D22:G22)</f>
         <v>62</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="70">
         <f>SUM($D22:H22)</f>
         <v>67</v>
       </c>
-      <c r="I23" s="69">
+      <c r="I23" s="70">
         <f>SUM($D22:I22)</f>
         <v>69.3</v>
       </c>
-      <c r="J23" s="69">
+      <c r="J23" s="70">
         <f>SUM($D22:J22)</f>
         <v>69.3</v>
       </c>
-      <c r="K23" s="69">
+      <c r="K23" s="70">
         <f>SUM($D22:K22)</f>
         <v>69.899999999999991</v>
       </c>
-      <c r="L23" s="69">
+      <c r="L23" s="70">
         <f>SUM($D22:L22)</f>
         <v>90.6</v>
       </c>
-      <c r="M23" s="69">
+      <c r="M23" s="70">
         <f>SUM($D22:M22)</f>
         <v>115.19999999999999</v>
       </c>
-      <c r="N23" s="69">
+      <c r="N23" s="70">
         <f>SUM($D22:N22)</f>
         <v>144.19999999999999</v>
       </c>
-      <c r="O23" s="69">
+      <c r="O23" s="70">
         <f>SUM($D22:O22)</f>
         <v>144.19999999999999</v>
       </c>
-      <c r="P23" s="69">
+      <c r="P23" s="70">
         <f>SUM($D22:P22)</f>
-        <v>163.69999999999999</v>
-      </c>
-      <c r="Q23" s="69">
+        <v>166.7</v>
+      </c>
+      <c r="Q23" s="70">
         <f>SUM($D22:Q22)</f>
-        <v>163.69999999999999</v>
-      </c>
-      <c r="R23" s="69">
+        <v>166.7</v>
+      </c>
+      <c r="R23" s="70">
         <f>SUM($D22:R22)</f>
-        <v>163.69999999999999</v>
-      </c>
-      <c r="S23" s="69">
+        <v>181.7</v>
+      </c>
+      <c r="S23" s="70">
         <f>SUM($D22:S22)</f>
-        <v>173.7</v>
-      </c>
-      <c r="T23" s="69">
+        <v>191.7</v>
+      </c>
+      <c r="T23" s="70">
         <f>SUM($D22:T22)</f>
-        <v>188.7</v>
-      </c>
-      <c r="U23" s="69">
+        <v>206.7</v>
+      </c>
+      <c r="U23" s="70">
         <f>SUM($D22:U22)</f>
-        <v>221.7</v>
-      </c>
-      <c r="V23" s="69">
+        <v>239.7</v>
+      </c>
+      <c r="V23" s="70">
         <f>SUM($D22:V22)</f>
-        <v>246.7</v>
-      </c>
-      <c r="W23" s="69">
+        <v>264.7</v>
+      </c>
+      <c r="W23" s="70">
         <f>SUM($D22:W22)</f>
-        <v>257.7</v>
-      </c>
-      <c r="X23" s="69">
+        <v>275.7</v>
+      </c>
+      <c r="X23" s="70">
         <f>SUM($D22:X22)</f>
-        <v>257.7</v>
-      </c>
-      <c r="Y23" s="69">
+        <v>285.7</v>
+      </c>
+      <c r="Y23" s="70">
         <f>SUM($D22:Y22)</f>
-        <v>257.7</v>
-      </c>
-      <c r="Z23" s="69">
+        <v>295.7</v>
+      </c>
+      <c r="Z23" s="70">
         <f>SUM($D22:Z22)</f>
-        <v>293.7</v>
-      </c>
-      <c r="AA23" s="69">
+        <v>331.7</v>
+      </c>
+      <c r="AA23" s="70">
         <f>SUM($D22:AA22)</f>
-        <v>296.7</v>
-      </c>
-      <c r="AB23" s="69">
+        <v>350.2</v>
+      </c>
+      <c r="AB23" s="70">
         <f>SUM($D22:AB22)</f>
-        <v>296.7</v>
-      </c>
-      <c r="AC23" s="69">
+        <v>350.2</v>
+      </c>
+      <c r="AC23" s="70">
         <f>SUM($D22:AC22)</f>
-        <v>296.7</v>
+        <v>350.2</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -5134,7 +5614,7 @@
       </c>
       <c r="P24" s="21">
         <f t="shared" si="1"/>
-        <v>1170</v>
+        <v>1350</v>
       </c>
       <c r="Q24" s="21">
         <f t="shared" si="1"/>
@@ -5142,7 +5622,7 @@
       </c>
       <c r="R24" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="S24" s="21">
         <f t="shared" si="1"/>
@@ -5166,11 +5646,11 @@
       </c>
       <c r="X24" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Y24" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Z24" s="21">
         <f t="shared" si="1"/>
@@ -5178,7 +5658,7 @@
       </c>
       <c r="AA24" s="21">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>1120</v>
       </c>
       <c r="AB24" s="21">
         <f t="shared" si="1"/>
@@ -5208,8 +5688,8 @@
   </sheetPr>
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="R1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView showGridLines="0" topLeftCell="S1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -5414,19 +5894,19 @@
         <v>Refactoring &amp; Re-Work</v>
       </c>
       <c r="D10" s="30"/>
-      <c r="E10" s="67">
+      <c r="E10" s="68">
         <v>4</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="68">
         <v>4</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="68">
         <v>5</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="68">
         <v>5</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="68">
         <v>3</v>
       </c>
       <c r="J10" s="30"/>
@@ -5626,7 +6106,9 @@
       <c r="X14" s="30"/>
       <c r="Y14" s="30"/>
       <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
+      <c r="AA14" s="30">
+        <v>0.5</v>
+      </c>
       <c r="AB14" s="30"/>
       <c r="AC14" s="30"/>
     </row>
@@ -5669,8 +6151,12 @@
       <c r="W15" s="30">
         <v>5.5</v>
       </c>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
+      <c r="X15" s="30">
+        <v>15</v>
+      </c>
+      <c r="Y15" s="30">
+        <v>15</v>
+      </c>
       <c r="Z15" s="30">
         <v>12</v>
       </c>
@@ -5699,9 +6185,13 @@
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
+      <c r="P16" s="30">
+        <v>4</v>
+      </c>
       <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
+      <c r="R16" s="30">
+        <v>30</v>
+      </c>
       <c r="S16" s="30"/>
       <c r="T16" s="30"/>
       <c r="U16" s="30"/>
@@ -5710,7 +6200,9 @@
       <c r="X16" s="30"/>
       <c r="Y16" s="30"/>
       <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
+      <c r="AA16" s="30">
+        <v>11.5</v>
+      </c>
       <c r="AB16" s="30"/>
       <c r="AC16" s="30"/>
     </row>
@@ -5945,7 +6437,7 @@
       </c>
       <c r="P22" s="21">
         <f t="shared" ref="P22:AC22" si="1">SUM(P9:P21)</f>
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="Q22" s="21">
         <f t="shared" si="1"/>
@@ -5953,7 +6445,7 @@
       </c>
       <c r="R22" s="21">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="S22" s="21">
         <f t="shared" si="1"/>
@@ -5977,11 +6469,11 @@
       </c>
       <c r="X22" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y22" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z22" s="21">
         <f t="shared" si="1"/>
@@ -5989,7 +6481,7 @@
       </c>
       <c r="AA22" s="21">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AB22" s="21">
         <f t="shared" si="1"/>
@@ -6054,59 +6546,59 @@
       </c>
       <c r="P24" s="34">
         <f>SUM($D22:P22)</f>
-        <v>150.19999999999999</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="Q24" s="34">
         <f>SUM($D22:Q22)</f>
-        <v>150.19999999999999</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="R24" s="34">
         <f>SUM($D22:R22)</f>
-        <v>155.19999999999999</v>
+        <v>189.2</v>
       </c>
       <c r="S24" s="34">
         <f>SUM($D22:S22)</f>
-        <v>166.2</v>
+        <v>200.2</v>
       </c>
       <c r="T24" s="34">
         <f>SUM($D22:T22)</f>
-        <v>176.2</v>
+        <v>210.2</v>
       </c>
       <c r="U24" s="34">
         <f>SUM($D22:U22)</f>
-        <v>199.6</v>
+        <v>233.6</v>
       </c>
       <c r="V24" s="34">
         <f>SUM($D22:V22)</f>
-        <v>219.6</v>
+        <v>253.6</v>
       </c>
       <c r="W24" s="34">
         <f>SUM($D22:W22)</f>
-        <v>231.4</v>
+        <v>265.39999999999998</v>
       </c>
       <c r="X24" s="34">
         <f>SUM($D22:X22)</f>
-        <v>231.4</v>
+        <v>280.39999999999998</v>
       </c>
       <c r="Y24" s="34">
         <f>SUM($D22:Y22)</f>
-        <v>231.4</v>
+        <v>295.39999999999998</v>
       </c>
       <c r="Z24" s="34">
         <f>SUM($D22:Z22)</f>
-        <v>261.39999999999998</v>
+        <v>325.39999999999998</v>
       </c>
       <c r="AA24" s="34">
         <f>SUM($D22:AA22)</f>
-        <v>265.39999999999998</v>
+        <v>341.4</v>
       </c>
       <c r="AB24" s="34">
         <f>SUM($D22:AB22)</f>
-        <v>265.39999999999998</v>
+        <v>341.4</v>
       </c>
       <c r="AC24" s="34">
         <f>SUM($D22:AC22)</f>
-        <v>265.39999999999998</v>
+        <v>341.4</v>
       </c>
     </row>
   </sheetData>

--- a/bts_effort_여기다업데이트해주세요.xlsx
+++ b/bts_effort_여기다업데이트해주세요.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shchin/sdet/CMU/project/presentation/share_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30057839-8AAA-B74B-9692-49551BC0D7CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BDC12099-DA44-1548-AD41-3904FF4A8DA1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="AC" sheetId="9" r:id="rId3"/>
     <sheet name="©" sheetId="11" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="holidays">OFFSET(#REF!,1,0,COUNTA(#REF!),1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">AC!$A$2:$O$3</definedName>
@@ -1643,13 +1640,13 @@
                   <c:v>331.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>350.2</c:v>
+                  <c:v>353.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>350.2</c:v>
+                  <c:v>353.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>350.2</c:v>
+                  <c:v>353.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1852,13 +1849,13 @@
                   <c:v>325.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>341.4</c:v>
+                  <c:v>346.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>341.4</c:v>
+                  <c:v>346.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>341.4</c:v>
+                  <c:v>346.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2349,19 +2346,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Report"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2630,8 +2614,8 @@
   </sheetPr>
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -3853,15 +3837,15 @@
       </c>
       <c r="AA39" s="30">
         <f>AC!AA24</f>
-        <v>341.4</v>
+        <v>346.4</v>
       </c>
       <c r="AB39" s="30">
         <f>AC!AB24</f>
-        <v>341.4</v>
+        <v>346.4</v>
       </c>
       <c r="AC39" s="30">
         <f>AC!AC24</f>
-        <v>341.4</v>
+        <v>346.4</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3964,15 +3948,15 @@
       </c>
       <c r="AA40" s="30">
         <f>EV!AA23</f>
-        <v>350.2</v>
+        <v>353.2</v>
       </c>
       <c r="AB40" s="30">
         <f>EV!AB23</f>
-        <v>350.2</v>
+        <v>353.2</v>
       </c>
       <c r="AC40" s="30">
         <f>EV!AC23</f>
-        <v>350.2</v>
+        <v>353.2</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4109,15 +4093,15 @@
       </c>
       <c r="AA43" s="10">
         <f t="shared" si="6"/>
-        <v>8.8000000000000114</v>
+        <v>6.8000000000000114</v>
       </c>
       <c r="AB43" s="10">
         <f t="shared" si="6"/>
-        <v>8.8000000000000114</v>
+        <v>6.8000000000000114</v>
       </c>
       <c r="AC43" s="10">
         <f t="shared" si="6"/>
-        <v>8.8000000000000114</v>
+        <v>6.8000000000000114</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4218,15 +4202,15 @@
       </c>
       <c r="AA44" s="10">
         <f t="shared" si="9"/>
-        <v>-29.800000000000011</v>
+        <v>-26.800000000000011</v>
       </c>
       <c r="AB44" s="10">
         <f t="shared" si="9"/>
-        <v>-49.800000000000011</v>
+        <v>-46.800000000000011</v>
       </c>
       <c r="AC44" s="10">
         <f t="shared" si="9"/>
-        <v>-69.800000000000011</v>
+        <v>-66.800000000000011</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4327,15 +4311,15 @@
       </c>
       <c r="AA45" s="35">
         <f t="shared" si="12"/>
-        <v>1.025776215582894</v>
+        <v>1.0196304849884528</v>
       </c>
       <c r="AB45" s="35">
         <f t="shared" si="12"/>
-        <v>1.025776215582894</v>
+        <v>1.0196304849884528</v>
       </c>
       <c r="AC45" s="35">
         <f t="shared" si="12"/>
-        <v>1.025776215582894</v>
+        <v>1.0196304849884528</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4436,15 +4420,15 @@
       </c>
       <c r="AA46" s="35">
         <f t="shared" si="15"/>
-        <v>0.92157894736842105</v>
+        <v>0.92947368421052634</v>
       </c>
       <c r="AB46" s="35">
         <f t="shared" si="15"/>
-        <v>0.87549999999999994</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="AC46" s="35">
         <f t="shared" si="15"/>
-        <v>0.83380952380952378</v>
+        <v>0.8409523809523809</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4545,15 +4529,15 @@
       </c>
       <c r="AA47" s="36">
         <f t="shared" si="18"/>
-        <v>409.44603083952023</v>
+        <v>411.9139297848244</v>
       </c>
       <c r="AB47" s="36">
         <f t="shared" si="18"/>
-        <v>409.44603083952023</v>
+        <v>411.9139297848244</v>
       </c>
       <c r="AC47" s="36">
         <f t="shared" si="18"/>
-        <v>409.44603083952023</v>
+        <v>411.9139297848244</v>
       </c>
     </row>
   </sheetData>
@@ -4600,7 +4584,7 @@
   <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="R1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -5146,7 +5130,7 @@
       <c r="Y16" s="68"/>
       <c r="Z16" s="68"/>
       <c r="AA16" s="68">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB16" s="68"/>
       <c r="AC16" s="68"/>
@@ -5442,7 +5426,7 @@
       </c>
       <c r="AA22" s="69">
         <f t="shared" si="0"/>
-        <v>18.5</v>
+        <v>21.5</v>
       </c>
       <c r="AB22" s="69">
         <f t="shared" si="0"/>
@@ -5549,15 +5533,15 @@
       </c>
       <c r="AA23" s="70">
         <f>SUM($D22:AA22)</f>
-        <v>350.2</v>
+        <v>353.2</v>
       </c>
       <c r="AB23" s="70">
         <f>SUM($D22:AB22)</f>
-        <v>350.2</v>
+        <v>353.2</v>
       </c>
       <c r="AC23" s="70">
         <f>SUM($D22:AC22)</f>
-        <v>350.2</v>
+        <v>353.2</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -5658,7 +5642,7 @@
       </c>
       <c r="AA24" s="21">
         <f t="shared" si="1"/>
-        <v>1120</v>
+        <v>1300</v>
       </c>
       <c r="AB24" s="21">
         <f t="shared" si="1"/>
@@ -5688,8 +5672,8 @@
   </sheetPr>
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="S1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView showGridLines="0" zoomScale="166" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -6201,7 +6185,7 @@
       <c r="Y16" s="30"/>
       <c r="Z16" s="30"/>
       <c r="AA16" s="30">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB16" s="30"/>
       <c r="AC16" s="30"/>
@@ -6481,7 +6465,7 @@
       </c>
       <c r="AA22" s="21">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AB22" s="21">
         <f t="shared" si="1"/>
@@ -6590,15 +6574,15 @@
       </c>
       <c r="AA24" s="34">
         <f>SUM($D22:AA22)</f>
-        <v>341.4</v>
+        <v>346.4</v>
       </c>
       <c r="AB24" s="34">
         <f>SUM($D22:AB22)</f>
-        <v>341.4</v>
+        <v>346.4</v>
       </c>
       <c r="AC24" s="34">
         <f>SUM($D22:AC22)</f>
-        <v>341.4</v>
+        <v>346.4</v>
       </c>
     </row>
   </sheetData>

--- a/bts_effort_여기다업데이트해주세요.xlsx
+++ b/bts_effort_여기다업데이트해주세요.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shchin/sdet/CMU/project/presentation/share_doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET_CODE\share_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30057839-8AAA-B74B-9692-49551BC0D7CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="3" r:id="rId1"/>
@@ -18,9 +17,6 @@
     <sheet name="AC" sheetId="9" r:id="rId3"/>
     <sheet name="©" sheetId="11" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="holidays">OFFSET(#REF!,1,0,COUNTA(#REF!),1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">AC!$A$2:$O$3</definedName>
@@ -31,17 +27,17 @@
     <definedName name="vertex42_id" hidden="1">"earned-value-management.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Earned Value Management Template"</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Vertex42</author>
   </authors>
   <commentList>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +257,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -1214,7 +1210,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -1281,79 +1277,79 @@
                   <c:v>in Korea</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9</c:v>
+                  <c:v>07-09</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.10</c:v>
+                  <c:v>07-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.11</c:v>
+                  <c:v>07-11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.12</c:v>
+                  <c:v>07-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.13</c:v>
+                  <c:v>07-13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.14</c:v>
+                  <c:v>07-14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.15</c:v>
+                  <c:v>07-15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.16</c:v>
+                  <c:v>07-16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.17</c:v>
+                  <c:v>07-17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.18</c:v>
+                  <c:v>07-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.19</c:v>
+                  <c:v>07-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.20</c:v>
+                  <c:v>07-20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.21</c:v>
+                  <c:v>07-21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.22</c:v>
+                  <c:v>07-22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.23</c:v>
+                  <c:v>07-23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.24</c:v>
+                  <c:v>07-24</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.25</c:v>
+                  <c:v>07-25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.26</c:v>
+                  <c:v>07-26</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.27</c:v>
+                  <c:v>07-27</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.28</c:v>
+                  <c:v>07-28</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.29</c:v>
+                  <c:v>07-29</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.30</c:v>
+                  <c:v>07-30</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.31</c:v>
+                  <c:v>07-31</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.1</c:v>
+                  <c:v>08-01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.2</c:v>
+                  <c:v>08-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1410,43 +1406,43 @@
                   <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>230</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>250</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>270</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>295</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>320</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>320</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>320</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>350</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>380</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>400</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>420</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B77-4BB5-85C2-863F16D3AB54}"/>
             </c:ext>
@@ -1490,79 +1486,79 @@
                   <c:v>in Korea</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9</c:v>
+                  <c:v>07-09</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.10</c:v>
+                  <c:v>07-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.11</c:v>
+                  <c:v>07-11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.12</c:v>
+                  <c:v>07-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.13</c:v>
+                  <c:v>07-13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.14</c:v>
+                  <c:v>07-14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.15</c:v>
+                  <c:v>07-15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.16</c:v>
+                  <c:v>07-16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.17</c:v>
+                  <c:v>07-17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.18</c:v>
+                  <c:v>07-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.19</c:v>
+                  <c:v>07-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.20</c:v>
+                  <c:v>07-20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.21</c:v>
+                  <c:v>07-21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.22</c:v>
+                  <c:v>07-22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.23</c:v>
+                  <c:v>07-23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.24</c:v>
+                  <c:v>07-24</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.25</c:v>
+                  <c:v>07-25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.26</c:v>
+                  <c:v>07-26</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.27</c:v>
+                  <c:v>07-27</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.28</c:v>
+                  <c:v>07-28</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.29</c:v>
+                  <c:v>07-29</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.30</c:v>
+                  <c:v>07-30</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.31</c:v>
+                  <c:v>07-31</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.1</c:v>
+                  <c:v>08-01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.2</c:v>
+                  <c:v>08-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1655,7 +1651,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0B77-4BB5-85C2-863F16D3AB54}"/>
             </c:ext>
@@ -1699,79 +1695,79 @@
                   <c:v>in Korea</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9</c:v>
+                  <c:v>07-09</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.10</c:v>
+                  <c:v>07-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.11</c:v>
+                  <c:v>07-11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.12</c:v>
+                  <c:v>07-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.13</c:v>
+                  <c:v>07-13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.14</c:v>
+                  <c:v>07-14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.15</c:v>
+                  <c:v>07-15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.16</c:v>
+                  <c:v>07-16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.17</c:v>
+                  <c:v>07-17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.18</c:v>
+                  <c:v>07-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.19</c:v>
+                  <c:v>07-19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.20</c:v>
+                  <c:v>07-20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.21</c:v>
+                  <c:v>07-21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.22</c:v>
+                  <c:v>07-22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.23</c:v>
+                  <c:v>07-23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.24</c:v>
+                  <c:v>07-24</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.25</c:v>
+                  <c:v>07-25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.26</c:v>
+                  <c:v>07-26</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.27</c:v>
+                  <c:v>07-27</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.28</c:v>
+                  <c:v>07-28</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.29</c:v>
+                  <c:v>07-29</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.30</c:v>
+                  <c:v>07-30</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.31</c:v>
+                  <c:v>07-31</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.1</c:v>
+                  <c:v>08-01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.2</c:v>
+                  <c:v>08-02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1864,7 +1860,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0B77-4BB5-85C2-863F16D3AB54}"/>
             </c:ext>
@@ -1880,11 +1876,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="188275328"/>
-        <c:axId val="190614912"/>
+        <c:axId val="146881552"/>
+        <c:axId val="146912560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="188275328"/>
+        <c:axId val="146881552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,7 +1954,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190614912"/>
+        <c:crossAx val="146912560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -1967,7 +1963,7 @@
         <c:minorUnit val="1"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="190614912"/>
+        <c:axId val="146912560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,6 +1986,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
@@ -2021,7 +2018,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188275328"/>
+        <c:crossAx val="146881552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2131,7 +2128,7 @@
         <xdr:cNvPr id="1063" name="Chart 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2170,7 +2167,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2217,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2267,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2317,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,19 +2344,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Report"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2624,26 +2608,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="15" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="15" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20">
+    <row r="1" spans="1:17" ht="20.25">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
@@ -2656,7 +2640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16">
+    <row r="2" spans="1:17" ht="15.75">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -2844,7 +2828,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:29" ht="16">
+    <row r="20" spans="1:29" ht="15.75">
       <c r="A20" s="11" t="s">
         <v>31</v>
       </c>
@@ -2992,7 +2976,7 @@
       </c>
       <c r="C23" s="23">
         <f t="shared" ref="C23:C33" si="0">SUM(D23:AC23)</f>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30">
@@ -3019,9 +3003,15 @@
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
       <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
+      <c r="S23" s="30">
+        <v>3</v>
+      </c>
+      <c r="T23" s="30">
+        <v>3</v>
+      </c>
+      <c r="U23" s="30">
+        <v>3</v>
+      </c>
       <c r="V23" s="30"/>
       <c r="W23" s="30"/>
       <c r="X23" s="30"/>
@@ -3288,7 +3278,7 @@
       </c>
       <c r="C29" s="23">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
@@ -3305,9 +3295,15 @@
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
       <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
+      <c r="S29" s="30">
+        <v>2</v>
+      </c>
+      <c r="T29" s="30">
+        <v>2</v>
+      </c>
+      <c r="U29" s="30">
+        <v>2</v>
+      </c>
       <c r="V29" s="30"/>
       <c r="W29" s="30"/>
       <c r="X29" s="30"/>
@@ -3499,7 +3495,7 @@
       </c>
       <c r="C35" s="25">
         <f>SUM(C22:C33)</f>
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="D35" s="27">
         <f>SUM(D22:D34)</f>
@@ -3563,15 +3559,15 @@
       </c>
       <c r="S35" s="27">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T35" s="27">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U35" s="27">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V35" s="27">
         <f t="shared" si="3"/>
@@ -3674,47 +3670,47 @@
       </c>
       <c r="S36" s="29">
         <f>IF(ISBLANK(S21),NA(),SUM($D35:S35))</f>
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="T36" s="29">
         <f>IF(ISBLANK(T21),NA(),SUM($D35:T35))</f>
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="U36" s="29">
         <f>IF(ISBLANK(U21),NA(),SUM($D35:U35))</f>
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="V36" s="29">
         <f>IF(ISBLANK(V21),NA(),SUM($D35:V35))</f>
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="W36" s="29">
         <f>IF(ISBLANK(W21),NA(),SUM($D35:W35))</f>
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="X36" s="29">
         <f>IF(ISBLANK(X21),NA(),SUM($D35:X35))</f>
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="Y36" s="29">
         <f>IF(ISBLANK(Y21),NA(),SUM($D35:Y35))</f>
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="Z36" s="29">
         <f>IF(ISBLANK(Z21),NA(),SUM($D35:Z35))</f>
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="AA36" s="29">
         <f>IF(ISBLANK(AA21),NA(),SUM($D35:AA35))</f>
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="AB36" s="29">
         <f>IF(ISBLANK(AB21),NA(),SUM($D35:AB35))</f>
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="AC36" s="29">
         <f>IF(ISBLANK(AC21),NA(),SUM($D35:AC35))</f>
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3748,7 +3744,7 @@
       <c r="AB37" s="24"/>
       <c r="AC37" s="24"/>
     </row>
-    <row r="38" spans="1:29" ht="16">
+    <row r="38" spans="1:29" ht="15.75">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
@@ -4006,7 +4002,7 @@
       <c r="AB41" s="24"/>
       <c r="AC41" s="24"/>
     </row>
-    <row r="42" spans="1:29" ht="16">
+    <row r="42" spans="1:29" ht="15.75">
       <c r="A42" s="3" t="s">
         <v>20</v>
       </c>
@@ -4186,47 +4182,47 @@
       </c>
       <c r="S44" s="10">
         <f t="shared" si="9"/>
-        <v>-38.300000000000011</v>
+        <v>-43.300000000000011</v>
       </c>
       <c r="T44" s="10">
         <f t="shared" si="9"/>
-        <v>-43.300000000000011</v>
+        <v>-53.300000000000011</v>
       </c>
       <c r="U44" s="10">
         <f t="shared" si="9"/>
-        <v>-30.300000000000011</v>
+        <v>-45.300000000000011</v>
       </c>
       <c r="V44" s="10">
         <f t="shared" si="9"/>
-        <v>-30.300000000000011</v>
+        <v>-45.300000000000011</v>
       </c>
       <c r="W44" s="10">
         <f t="shared" si="9"/>
-        <v>-44.300000000000011</v>
+        <v>-59.300000000000011</v>
       </c>
       <c r="X44" s="10">
         <f t="shared" si="9"/>
-        <v>-34.300000000000011</v>
+        <v>-49.300000000000011</v>
       </c>
       <c r="Y44" s="10">
         <f t="shared" si="9"/>
-        <v>-24.300000000000011</v>
+        <v>-39.300000000000011</v>
       </c>
       <c r="Z44" s="10">
         <f t="shared" si="9"/>
-        <v>-18.300000000000011</v>
+        <v>-33.300000000000011</v>
       </c>
       <c r="AA44" s="10">
         <f t="shared" si="9"/>
-        <v>-29.800000000000011</v>
+        <v>-44.800000000000011</v>
       </c>
       <c r="AB44" s="10">
         <f t="shared" si="9"/>
-        <v>-49.800000000000011</v>
+        <v>-64.800000000000011</v>
       </c>
       <c r="AC44" s="10">
         <f t="shared" si="9"/>
-        <v>-69.800000000000011</v>
+        <v>-84.800000000000011</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4404,47 +4400,47 @@
       </c>
       <c r="S46" s="35">
         <f t="shared" si="15"/>
-        <v>0.83347826086956511</v>
+        <v>0.81574468085106377</v>
       </c>
       <c r="T46" s="35">
         <f t="shared" si="15"/>
-        <v>0.82679999999999998</v>
+        <v>0.79499999999999993</v>
       </c>
       <c r="U46" s="35">
         <f t="shared" si="15"/>
-        <v>0.88777777777777778</v>
+        <v>0.84105263157894727</v>
       </c>
       <c r="V46" s="35">
         <f t="shared" si="15"/>
-        <v>0.89728813559322029</v>
+        <v>0.85387096774193549</v>
       </c>
       <c r="W46" s="35">
         <f t="shared" si="15"/>
-        <v>0.86156250000000001</v>
+        <v>0.82298507462686565</v>
       </c>
       <c r="X46" s="35">
         <f t="shared" si="15"/>
-        <v>0.89281250000000001</v>
+        <v>0.85283582089552235</v>
       </c>
       <c r="Y46" s="35">
         <f t="shared" si="15"/>
-        <v>0.92406250000000001</v>
+        <v>0.88268656716417904</v>
       </c>
       <c r="Z46" s="35">
         <f t="shared" si="15"/>
-        <v>0.94771428571428573</v>
+        <v>0.90876712328767117</v>
       </c>
       <c r="AA46" s="35">
         <f t="shared" si="15"/>
-        <v>0.92157894736842105</v>
+        <v>0.88658227848101268</v>
       </c>
       <c r="AB46" s="35">
         <f t="shared" si="15"/>
-        <v>0.87549999999999994</v>
+        <v>0.84385542168674699</v>
       </c>
       <c r="AC46" s="35">
         <f t="shared" si="15"/>
-        <v>0.83380952380952378</v>
+        <v>0.80505747126436777</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4453,107 +4449,107 @@
       </c>
       <c r="D47" s="36">
         <f>IF(AND(ISBLANK(D39),ISBLANK(D40))," - ",$C$35/D45)</f>
-        <v>306.60000000000002</v>
+        <v>317.55</v>
       </c>
       <c r="E47" s="36">
         <f t="shared" ref="E47:O47" si="16">IF(AND(ISBLANK(E39),ISBLANK(E40))," - ",$C$35/E45)</f>
-        <v>320.94339622641508</v>
+        <v>332.40566037735846</v>
       </c>
       <c r="F47" s="36">
         <f t="shared" si="16"/>
-        <v>327.89473684210526</v>
+        <v>339.60526315789474</v>
       </c>
       <c r="G47" s="36">
         <f t="shared" si="16"/>
-        <v>335.32258064516128</v>
+        <v>347.29838709677415</v>
       </c>
       <c r="H47" s="36">
         <f t="shared" si="16"/>
-        <v>341.64179104477614</v>
+        <v>353.84328358208955</v>
       </c>
       <c r="I47" s="36">
         <f t="shared" si="16"/>
-        <v>350.30303030303031</v>
+        <v>362.8138528138528</v>
       </c>
       <c r="J47" s="36">
         <f t="shared" si="16"/>
-        <v>350.30303030303031</v>
+        <v>362.8138528138528</v>
       </c>
       <c r="K47" s="36">
         <f t="shared" si="16"/>
-        <v>350.9012875536481</v>
+        <v>363.43347639484978</v>
       </c>
       <c r="L47" s="36">
         <f t="shared" si="16"/>
-        <v>371.32450331125824</v>
+        <v>384.58609271523176</v>
       </c>
       <c r="M47" s="36">
         <f t="shared" si="16"/>
-        <v>403.59374999999994</v>
+        <v>418.00781249999994</v>
       </c>
       <c r="N47" s="36">
         <f t="shared" si="16"/>
-        <v>392.33009708737865</v>
+        <v>406.34188626907076</v>
       </c>
       <c r="O47" s="36">
         <f t="shared" si="16"/>
-        <v>392.33009708737865</v>
+        <v>406.34188626907076</v>
       </c>
       <c r="P47" s="36">
         <f t="shared" ref="P47:Q47" si="17">IF(AND(ISBLANK(P39),ISBLANK(P40))," - ",$C$35/P45)</f>
-        <v>388.50629874025196</v>
+        <v>402.38152369526097</v>
       </c>
       <c r="Q47" s="36">
         <f t="shared" si="17"/>
-        <v>388.50629874025196</v>
+        <v>402.38152369526097</v>
       </c>
       <c r="R47" s="36">
         <f t="shared" ref="R47:AC47" si="18">IF(AND(ISBLANK(R39),ISBLANK(R40))," - ",$C$35/R45)</f>
-        <v>437.33626857457347</v>
+        <v>452.95542102366534</v>
       </c>
       <c r="S47" s="36">
         <f t="shared" si="18"/>
-        <v>438.62284820031294</v>
+        <v>454.28794992175273</v>
       </c>
       <c r="T47" s="36">
         <f t="shared" si="18"/>
-        <v>427.11175616835993</v>
+        <v>442.36574746008711</v>
       </c>
       <c r="U47" s="36">
         <f t="shared" si="18"/>
-        <v>409.31163954943685</v>
+        <v>423.92991239048814</v>
       </c>
       <c r="V47" s="36">
         <f t="shared" si="18"/>
-        <v>402.38760861352472</v>
+        <v>416.75859463543634</v>
       </c>
       <c r="W47" s="36">
         <f t="shared" si="18"/>
-        <v>404.30903155603914</v>
+        <v>418.74863982589767</v>
       </c>
       <c r="X47" s="36">
         <f t="shared" si="18"/>
-        <v>412.2086104305215</v>
+        <v>426.93034651732586</v>
       </c>
       <c r="Y47" s="36">
         <f t="shared" si="18"/>
-        <v>419.57389245857286</v>
+        <v>434.55867433209335</v>
       </c>
       <c r="Z47" s="36">
         <f t="shared" si="18"/>
-        <v>412.02291227012358</v>
+        <v>426.73801627977087</v>
       </c>
       <c r="AA47" s="36">
         <f t="shared" si="18"/>
-        <v>409.44603083952023</v>
+        <v>424.06910336950313</v>
       </c>
       <c r="AB47" s="36">
         <f t="shared" si="18"/>
-        <v>409.44603083952023</v>
+        <v>424.06910336950313</v>
       </c>
       <c r="AC47" s="36">
         <f t="shared" si="18"/>
-        <v>409.44603083952023</v>
+        <v>424.06910336950313</v>
       </c>
     </row>
   </sheetData>
@@ -4580,7 +4576,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="Q3" r:id="rId1" display="https://www.vertex42.com/ExcelTemplates/earned-value-management.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q3" r:id="rId1" display="https://www.vertex42.com/ExcelTemplates/earned-value-management.html"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.5" header="0.5" footer="0.25"/>
   <pageSetup scale="91" orientation="landscape" r:id="rId2"/>
@@ -4593,7 +4589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4603,21 +4599,21 @@
       <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="15" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="15" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="20">
+    <row r="1" spans="1:29" ht="20.25">
       <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16">
+    <row r="2" spans="1:29" ht="15.75">
       <c r="A2" s="11"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4812,7 +4808,7 @@
       </c>
       <c r="C10">
         <f>Report!C23</f>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D10" s="68"/>
       <c r="E10" s="68">
@@ -5116,7 +5112,7 @@
       </c>
       <c r="C16">
         <f>Report!C29</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -5570,23 +5566,23 @@
       </c>
       <c r="E24" s="21">
         <f t="shared" ref="E24:AC24" si="1">SUMPRODUCT(E9:E21,$C$9:$C$21)</f>
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F24" s="21">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="H24" s="21">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="I24" s="21">
         <f t="shared" si="1"/>
-        <v>114.99999999999999</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="1"/>
@@ -5594,19 +5590,19 @@
       </c>
       <c r="K24" s="21">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35.4</v>
       </c>
       <c r="L24" s="21">
         <f t="shared" si="1"/>
-        <v>1170</v>
+        <v>1203.3</v>
       </c>
       <c r="M24" s="21">
         <f t="shared" si="1"/>
-        <v>1365</v>
+        <v>1433.4</v>
       </c>
       <c r="N24" s="21">
         <f t="shared" si="1"/>
-        <v>1585</v>
+        <v>1603</v>
       </c>
       <c r="O24" s="21">
         <f t="shared" si="1"/>
@@ -5614,7 +5610,7 @@
       </c>
       <c r="P24" s="21">
         <f t="shared" si="1"/>
-        <v>1350</v>
+        <v>1368</v>
       </c>
       <c r="Q24" s="21">
         <f t="shared" si="1"/>
@@ -5622,7 +5618,7 @@
       </c>
       <c r="R24" s="21">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="S24" s="21">
         <f t="shared" si="1"/>
@@ -5658,7 +5654,7 @@
       </c>
       <c r="AA24" s="21">
         <f t="shared" si="1"/>
-        <v>1120</v>
+        <v>1210</v>
       </c>
       <c r="AB24" s="21">
         <f t="shared" si="1"/>
@@ -5672,7 +5668,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q3" r:id="rId1" display="https://www.vertex42.com/ExcelTemplates/earned-value-management.html" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="Q3" r:id="rId1" display="https://www.vertex42.com/ExcelTemplates/earned-value-management.html"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.25" header="0.5" footer="0.25"/>
   <pageSetup scale="93" orientation="landscape" r:id="rId2"/>
@@ -5682,7 +5678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5692,21 +5688,21 @@
       <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="15" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="15" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="20">
+    <row r="1" spans="1:29" ht="20.25">
       <c r="A1" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16">
+    <row r="2" spans="1:29" ht="15.75">
       <c r="A2" s="11"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6604,7 +6600,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q3" r:id="rId1" display="https://www.vertex42.com/ExcelTemplates/earned-value-management.html" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="Q3" r:id="rId1" display="https://www.vertex42.com/ExcelTemplates/earned-value-management.html"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.25" header="0.5" footer="0.25"/>
   <pageSetup scale="93" orientation="landscape" r:id="rId2"/>
@@ -6614,19 +6610,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="78.5" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1">
@@ -6637,12 +6633,12 @@
       <c r="C1" s="37"/>
       <c r="D1" s="29"/>
     </row>
-    <row r="2" spans="1:4" ht="14">
+    <row r="2" spans="1:4" ht="16.5">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="38"/>
     </row>
-    <row r="3" spans="1:4" s="42" customFormat="1" ht="14">
+    <row r="3" spans="1:4" s="42" customFormat="1" ht="14.25">
       <c r="A3" s="40"/>
       <c r="B3" s="41" t="s">
         <v>39</v>
@@ -6656,109 +6652,109 @@
       </c>
       <c r="C4" s="40"/>
     </row>
-    <row r="5" spans="1:4" s="42" customFormat="1" ht="16">
+    <row r="5" spans="1:4" s="42" customFormat="1" ht="15">
       <c r="A5" s="40"/>
       <c r="B5" s="44"/>
       <c r="C5" s="40"/>
     </row>
-    <row r="6" spans="1:4" s="42" customFormat="1" ht="16">
+    <row r="6" spans="1:4" s="42" customFormat="1" ht="15.75">
       <c r="A6" s="40"/>
       <c r="B6" s="45" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="40"/>
     </row>
-    <row r="7" spans="1:4" s="42" customFormat="1" ht="16">
+    <row r="7" spans="1:4" s="42" customFormat="1" ht="15.75">
       <c r="A7" s="46"/>
       <c r="B7" s="44"/>
       <c r="C7" s="47"/>
     </row>
-    <row r="8" spans="1:4" s="42" customFormat="1" ht="32">
+    <row r="8" spans="1:4" s="42" customFormat="1" ht="30">
       <c r="A8" s="48"/>
       <c r="B8" s="44" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="40"/>
     </row>
-    <row r="9" spans="1:4" s="42" customFormat="1" ht="16">
+    <row r="9" spans="1:4" s="42" customFormat="1" ht="15">
       <c r="A9" s="48"/>
       <c r="B9" s="44"/>
       <c r="C9" s="40"/>
     </row>
-    <row r="10" spans="1:4" s="42" customFormat="1" ht="32">
+    <row r="10" spans="1:4" s="42" customFormat="1" ht="30">
       <c r="A10" s="48"/>
       <c r="B10" s="44" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="40"/>
     </row>
-    <row r="11" spans="1:4" s="42" customFormat="1" ht="16">
+    <row r="11" spans="1:4" s="42" customFormat="1" ht="15">
       <c r="A11" s="48"/>
       <c r="B11" s="44"/>
       <c r="C11" s="40"/>
     </row>
-    <row r="12" spans="1:4" s="42" customFormat="1" ht="32">
+    <row r="12" spans="1:4" s="42" customFormat="1" ht="30">
       <c r="A12" s="48"/>
       <c r="B12" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="40"/>
     </row>
-    <row r="13" spans="1:4" s="42" customFormat="1" ht="16">
+    <row r="13" spans="1:4" s="42" customFormat="1" ht="15">
       <c r="A13" s="48"/>
       <c r="B13" s="44"/>
       <c r="C13" s="40"/>
     </row>
-    <row r="14" spans="1:4" s="42" customFormat="1" ht="16">
+    <row r="14" spans="1:4" s="42" customFormat="1" ht="15">
       <c r="A14" s="48"/>
       <c r="B14" s="63" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="40"/>
     </row>
-    <row r="15" spans="1:4" s="42" customFormat="1" ht="16">
+    <row r="15" spans="1:4" s="42" customFormat="1" ht="15">
       <c r="A15" s="48"/>
       <c r="B15" s="44"/>
       <c r="C15" s="40"/>
     </row>
-    <row r="16" spans="1:4" s="42" customFormat="1" ht="16">
+    <row r="16" spans="1:4" s="42" customFormat="1" ht="15.75">
       <c r="A16" s="48"/>
       <c r="B16" s="62" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="40"/>
     </row>
-    <row r="17" spans="1:3" s="42" customFormat="1" ht="14">
+    <row r="17" spans="1:3" s="42" customFormat="1" ht="16.5">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
       <c r="C17" s="40"/>
     </row>
-    <row r="18" spans="1:3" s="42" customFormat="1" ht="14">
+    <row r="18" spans="1:3" s="42" customFormat="1" ht="16.5">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
       <c r="C18" s="40"/>
     </row>
-    <row r="19" spans="1:3" s="42" customFormat="1" ht="14">
+    <row r="19" spans="1:3" s="42" customFormat="1" ht="14.25">
       <c r="A19" s="48"/>
       <c r="B19" s="50"/>
       <c r="C19" s="40"/>
     </row>
-    <row r="20" spans="1:3" s="42" customFormat="1" ht="14">
+    <row r="20" spans="1:3" s="42" customFormat="1" ht="15">
       <c r="A20" s="46"/>
       <c r="B20" s="50"/>
       <c r="C20" s="47"/>
     </row>
-    <row r="21" spans="1:3" s="42" customFormat="1" ht="14">
+    <row r="21" spans="1:3" s="42" customFormat="1" ht="14.25">
       <c r="A21" s="40"/>
       <c r="B21" s="51"/>
       <c r="C21" s="40"/>
     </row>
-    <row r="22" spans="1:3" s="42" customFormat="1" ht="14">
+    <row r="22" spans="1:3" s="42" customFormat="1" ht="14.25">
       <c r="A22" s="40"/>
       <c r="B22" s="51"/>
       <c r="C22" s="40"/>
     </row>
-    <row r="23" spans="1:3" s="42" customFormat="1" ht="16">
+    <row r="23" spans="1:3" s="42" customFormat="1" ht="15.75">
       <c r="A23" s="52"/>
       <c r="B23" s="53"/>
     </row>
@@ -6777,7 +6773,7 @@
       <c r="A29" s="54"/>
       <c r="B29" s="56"/>
     </row>
-    <row r="30" spans="1:3" s="42" customFormat="1" ht="14">
+    <row r="30" spans="1:3" s="42" customFormat="1" ht="14.25">
       <c r="B30" s="57"/>
     </row>
     <row r="31" spans="1:3" s="42" customFormat="1"/>
@@ -6785,8 +6781,8 @@
   </sheetData>
   <phoneticPr fontId="42" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
